--- a/Code/Results/Cases/Case_3_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.09655893777786</v>
+        <v>11.68314440705249</v>
       </c>
       <c r="C2">
-        <v>11.79822091135809</v>
+        <v>7.44904072262006</v>
       </c>
       <c r="D2">
-        <v>8.048393046173794</v>
+        <v>11.48108678349906</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.26903140599407</v>
+        <v>28.07982124531163</v>
       </c>
       <c r="G2">
-        <v>21.20143157698839</v>
+        <v>25.31283876543285</v>
       </c>
       <c r="H2">
-        <v>8.081198247980872</v>
+        <v>13.34986025467813</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.636090050386989</v>
+        <v>11.21989229887501</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.62073201922457</v>
+        <v>16.49252308586409</v>
       </c>
       <c r="N2">
-        <v>11.71699521898259</v>
+        <v>17.03302699124378</v>
       </c>
       <c r="O2">
-        <v>13.25906339148307</v>
+        <v>19.87165092779136</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92759021349839</v>
+        <v>11.17585858336026</v>
       </c>
       <c r="C3">
-        <v>11.161847598468</v>
+        <v>7.118073954361782</v>
       </c>
       <c r="D3">
-        <v>7.808702466391162</v>
+        <v>11.46439291866277</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.79058235609587</v>
+        <v>28.10129476322183</v>
       </c>
       <c r="G3">
-        <v>20.4652165486268</v>
+        <v>25.28473549344122</v>
       </c>
       <c r="H3">
-        <v>8.081556418767244</v>
+        <v>13.38965292054986</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.63221958385285</v>
+        <v>11.24722677181777</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.85029471728092</v>
+        <v>16.33357170033008</v>
       </c>
       <c r="N3">
-        <v>11.82805270136231</v>
+        <v>17.07569612195835</v>
       </c>
       <c r="O3">
-        <v>13.1008912880463</v>
+        <v>19.92072144201968</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.16741159597115</v>
+        <v>10.85320893001702</v>
       </c>
       <c r="C4">
-        <v>10.75153089459506</v>
+        <v>6.905726496568719</v>
       </c>
       <c r="D4">
-        <v>7.661616915525582</v>
+        <v>11.45602244036113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.51011998303886</v>
+        <v>28.12196722358647</v>
       </c>
       <c r="G4">
-        <v>20.02619093569183</v>
+        <v>25.2770065025454</v>
       </c>
       <c r="H4">
-        <v>8.087785991713595</v>
+        <v>13.41645970570025</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.633655050527317</v>
+        <v>11.26562955622145</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.35902129007639</v>
+        <v>16.23763683849317</v>
       </c>
       <c r="N4">
-        <v>11.89977048986075</v>
+        <v>17.10362961990512</v>
       </c>
       <c r="O4">
-        <v>13.01591165000024</v>
+        <v>19.95573983319532</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.84694291365069</v>
+        <v>10.71909691433692</v>
       </c>
       <c r="C5">
-        <v>10.5794934998558</v>
+        <v>6.816977033231961</v>
       </c>
       <c r="D5">
-        <v>7.60178473619847</v>
+        <v>11.45308691128494</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.39926603749605</v>
+        <v>28.13227203604722</v>
       </c>
       <c r="G5">
-        <v>19.85080398003943</v>
+        <v>25.27625281819564</v>
       </c>
       <c r="H5">
-        <v>8.091784443626768</v>
+        <v>13.42798011169156</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.635171638882495</v>
+        <v>11.27353600884418</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.15445450762464</v>
+        <v>16.19899754528203</v>
       </c>
       <c r="N5">
-        <v>11.92987006323508</v>
+        <v>17.11544963334899</v>
       </c>
       <c r="O5">
-        <v>12.98427646887442</v>
+        <v>19.97123629949267</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.79308324847936</v>
+        <v>10.69667463693277</v>
       </c>
       <c r="C6">
-        <v>10.550638274245</v>
+        <v>6.802108994072434</v>
       </c>
       <c r="D6">
-        <v>7.591858634458736</v>
+        <v>11.45262826612207</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.38106880937977</v>
+        <v>28.13409664270634</v>
       </c>
       <c r="G6">
-        <v>19.82190084089947</v>
+        <v>25.27627233647843</v>
       </c>
       <c r="H6">
-        <v>8.092535047705908</v>
+        <v>13.42992907316408</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.635478944796897</v>
+        <v>11.27487346045108</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.12022951491005</v>
+        <v>16.19261006383365</v>
       </c>
       <c r="N6">
-        <v>11.93492050143701</v>
+        <v>17.11743874635916</v>
       </c>
       <c r="O6">
-        <v>12.97920246396212</v>
+        <v>19.97388343660974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.16313294767838</v>
+        <v>10.85141063990601</v>
       </c>
       <c r="C7">
-        <v>10.74923015478731</v>
+        <v>6.904538448178071</v>
       </c>
       <c r="D7">
-        <v>7.660809451869499</v>
+        <v>11.45598092191534</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.50861094157409</v>
+        <v>28.12209858702236</v>
       </c>
       <c r="G7">
-        <v>20.02381103066851</v>
+        <v>25.27698663853675</v>
       </c>
       <c r="H7">
-        <v>8.08783407340781</v>
+        <v>13.41661265974042</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.633671767332597</v>
+        <v>11.26573453683123</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.35627980871749</v>
+        <v>16.23711384510671</v>
       </c>
       <c r="N7">
-        <v>11.90017290088801</v>
+        <v>17.10378725881927</v>
       </c>
       <c r="O7">
-        <v>13.01547296490309</v>
+        <v>19.95594386357515</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70228901349547</v>
+        <v>11.51065213777613</v>
       </c>
       <c r="C8">
-        <v>11.58291315717103</v>
+        <v>7.336863276778803</v>
       </c>
       <c r="D8">
-        <v>7.965779549974952</v>
+        <v>11.47494242881909</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.10135777937944</v>
+        <v>28.08567022245957</v>
       </c>
       <c r="G8">
-        <v>20.94503211977782</v>
+        <v>25.30117261203446</v>
       </c>
       <c r="H8">
-        <v>8.080043692430905</v>
+        <v>13.36308775252538</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.633948198972536</v>
+        <v>11.22898113024684</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.3589828121723</v>
+        <v>16.4373941628355</v>
       </c>
       <c r="N8">
-        <v>11.75454727274249</v>
+        <v>17.04737975731909</v>
       </c>
       <c r="O8">
-        <v>13.20197466939186</v>
+        <v>19.88755392957974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.38529028458945</v>
+        <v>12.70801949261509</v>
       </c>
       <c r="C9">
-        <v>13.05929395344372</v>
+        <v>8.109248572027946</v>
       </c>
       <c r="D9">
-        <v>8.561026153095407</v>
+        <v>11.52690207487337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.364921154239</v>
+        <v>28.0737019701161</v>
       </c>
       <c r="G9">
-        <v>22.84413027085791</v>
+        <v>25.42404301081082</v>
       </c>
       <c r="H9">
-        <v>8.114720018270852</v>
+        <v>13.27698417647919</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.665932619977324</v>
+        <v>11.16975697901931</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.2689706085382</v>
+        <v>16.84167106628555</v>
       </c>
       <c r="N9">
-        <v>11.49762791978539</v>
+        <v>16.9504943352803</v>
       </c>
       <c r="O9">
-        <v>13.6660928912284</v>
+        <v>19.79236301856312</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.15444464512442</v>
+        <v>13.52200370067978</v>
       </c>
       <c r="C10">
-        <v>14.04441427495463</v>
+        <v>8.627530136155249</v>
       </c>
       <c r="D10">
-        <v>8.99241616652545</v>
+        <v>11.57388274243842</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.3488069724508</v>
+        <v>28.10117716345722</v>
       </c>
       <c r="G10">
-        <v>24.2824591671331</v>
+        <v>25.55992216640944</v>
       </c>
       <c r="H10">
-        <v>8.173702618311554</v>
+        <v>13.22525035311167</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.710224363867291</v>
+        <v>11.13407881746466</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.70150880239433</v>
+        <v>17.14346866248732</v>
       </c>
       <c r="N10">
-        <v>11.32735691740301</v>
+        <v>16.88763780066706</v>
       </c>
       <c r="O10">
-        <v>14.06923198633941</v>
+        <v>19.74631508508885</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.91601302499378</v>
+        <v>13.87680463132691</v>
       </c>
       <c r="C11">
-        <v>14.4705957697399</v>
+        <v>8.852121168660352</v>
       </c>
       <c r="D11">
-        <v>9.186614879940413</v>
+        <v>11.59711833691075</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.80717182617046</v>
+        <v>28.12153221935067</v>
       </c>
       <c r="G11">
-        <v>24.94369743653375</v>
+        <v>25.6314980544671</v>
       </c>
       <c r="H11">
-        <v>8.208445256172753</v>
+        <v>13.20422401161514</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.735232013490585</v>
+        <v>11.11954882586654</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.31911614055775</v>
+        <v>17.28131878176043</v>
       </c>
       <c r="N11">
-        <v>11.25417104898258</v>
+        <v>16.86084127972057</v>
       </c>
       <c r="O11">
-        <v>14.26641499230303</v>
+        <v>19.73058177003163</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.19823629162686</v>
+        <v>14.00884971397662</v>
       </c>
       <c r="C12">
-        <v>14.62880630742679</v>
+        <v>8.935527456334986</v>
       </c>
       <c r="D12">
-        <v>9.259804889934466</v>
+        <v>11.60618039912634</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.98219283685211</v>
+        <v>28.13036629009335</v>
       </c>
       <c r="G12">
-        <v>25.19491757802253</v>
+        <v>25.65998961389563</v>
       </c>
       <c r="H12">
-        <v>8.222789331870311</v>
+        <v>13.19662292338122</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.745428187497805</v>
+        <v>11.11429115446033</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.54814248353243</v>
+        <v>17.33355938552639</v>
       </c>
       <c r="N12">
-        <v>11.22709659561582</v>
+        <v>16.85095190766522</v>
       </c>
       <c r="O12">
-        <v>14.34307961506883</v>
+        <v>19.72537543571053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.13772786608257</v>
+        <v>13.98051538794408</v>
       </c>
       <c r="C13">
-        <v>14.59487424761064</v>
+        <v>8.917637904341069</v>
       </c>
       <c r="D13">
-        <v>9.244058426205708</v>
+        <v>11.60421709296081</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.94443606864226</v>
+        <v>28.12841370462098</v>
       </c>
       <c r="G13">
-        <v>25.14077865728822</v>
+        <v>25.65379204021142</v>
       </c>
       <c r="H13">
-        <v>8.219646465827417</v>
+        <v>13.19824388420064</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.74319951889686</v>
+        <v>11.11541261255214</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.49903236032901</v>
+        <v>17.3223073151863</v>
       </c>
       <c r="N13">
-        <v>11.23289869405973</v>
+        <v>16.8530702997885</v>
       </c>
       <c r="O13">
-        <v>14.32647961541605</v>
+        <v>19.72646326465641</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.93935498191113</v>
+        <v>13.88771479455292</v>
       </c>
       <c r="C14">
-        <v>14.48367555285303</v>
+        <v>8.859016125641487</v>
       </c>
       <c r="D14">
-        <v>9.192643546986435</v>
+        <v>11.59785863072222</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.8215424454989</v>
+        <v>28.12223646119593</v>
       </c>
       <c r="G14">
-        <v>24.9643498563661</v>
+        <v>25.63381437356434</v>
       </c>
       <c r="H14">
-        <v>8.209601263924961</v>
+        <v>13.2035914249724</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.736056145136369</v>
+        <v>11.11911137336765</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.3380551438084</v>
+        <v>17.2856160836324</v>
       </c>
       <c r="N14">
-        <v>11.25193064803572</v>
+        <v>16.86002250974554</v>
       </c>
       <c r="O14">
-        <v>14.27268218789755</v>
+        <v>19.73013837132293</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81704439686755</v>
+        <v>13.83056862154302</v>
       </c>
       <c r="C15">
-        <v>14.41514925809591</v>
+        <v>8.822893916876943</v>
       </c>
       <c r="D15">
-        <v>9.161103509587551</v>
+        <v>11.5939980249571</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.74645223713392</v>
+        <v>28.11859923700891</v>
       </c>
       <c r="G15">
-        <v>24.85638470611225</v>
+        <v>25.62175760397047</v>
       </c>
       <c r="H15">
-        <v>8.203604440782959</v>
+        <v>13.20691399328343</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.731776025506826</v>
+        <v>11.12140881578808</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.23882210778707</v>
+        <v>17.26314561565979</v>
       </c>
       <c r="N15">
-        <v>11.26367233798644</v>
+        <v>16.86431450777958</v>
       </c>
       <c r="O15">
-        <v>14.23998988565561</v>
+        <v>19.73248739712299</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.10380868469398</v>
+        <v>13.49849757666911</v>
       </c>
       <c r="C16">
-        <v>14.01611877560818</v>
+        <v>8.61262460286</v>
       </c>
       <c r="D16">
-        <v>8.979678845247717</v>
+        <v>11.57240134578589</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.31905983515703</v>
+        <v>28.10000471527812</v>
       </c>
       <c r="G16">
-        <v>24.2393697495049</v>
+        <v>25.55543962196627</v>
       </c>
       <c r="H16">
-        <v>8.171595616311834</v>
+        <v>13.22667498067972</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.708690196365653</v>
+        <v>11.1350626022063</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.66046549982611</v>
+        <v>17.13446761408521</v>
       </c>
       <c r="N16">
-        <v>11.33222783398865</v>
+        <v>16.88942513373525</v>
       </c>
       <c r="O16">
-        <v>14.05662433579753</v>
+        <v>19.74744837355448</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.65522420928692</v>
+        <v>13.29075291267364</v>
       </c>
       <c r="C17">
-        <v>13.76568760288656</v>
+        <v>8.480742046869644</v>
       </c>
       <c r="D17">
-        <v>8.867816014614418</v>
+        <v>11.55962655643611</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.05955579131409</v>
+        <v>28.09060754466768</v>
       </c>
       <c r="G17">
-        <v>23.86249484152078</v>
+        <v>25.51724542876117</v>
       </c>
       <c r="H17">
-        <v>8.154021578928633</v>
+        <v>13.23944036499572</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.695792026270213</v>
+        <v>11.1438742479061</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.29697301925918</v>
+        <v>17.05564226356156</v>
       </c>
       <c r="N17">
-        <v>11.37539553819308</v>
+        <v>16.90528960605124</v>
       </c>
       <c r="O17">
-        <v>13.94767872473551</v>
+        <v>19.75796327112033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.39313814229065</v>
+        <v>13.16981027655523</v>
       </c>
       <c r="C18">
-        <v>13.61958019517123</v>
+        <v>8.403836195527914</v>
       </c>
       <c r="D18">
-        <v>8.803286037679205</v>
+        <v>11.55245457446394</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.91131730078917</v>
+        <v>28.08594232212366</v>
       </c>
       <c r="G18">
-        <v>23.64638782969287</v>
+        <v>25.49619733009175</v>
       </c>
       <c r="H18">
-        <v>8.144655170200627</v>
+        <v>13.24701867703818</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.68882906951489</v>
+        <v>11.14910250172335</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.08469256049528</v>
+        <v>17.0103592274399</v>
       </c>
       <c r="N18">
-        <v>11.4006248292027</v>
+        <v>16.91458362669532</v>
       </c>
       <c r="O18">
-        <v>13.88631402162805</v>
+        <v>19.76450185883912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.30369944328566</v>
+        <v>13.12861432669071</v>
       </c>
       <c r="C19">
-        <v>13.56975659622569</v>
+        <v>8.377617912081194</v>
       </c>
       <c r="D19">
-        <v>8.78140655680677</v>
+        <v>11.55005658861673</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.86130501010125</v>
+        <v>28.08448990965971</v>
       </c>
       <c r="G19">
-        <v>23.57333707121322</v>
+        <v>25.48922931255602</v>
       </c>
       <c r="H19">
-        <v>8.141609705314265</v>
+        <v>13.24962507967862</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.686548959545519</v>
+        <v>11.15090018220668</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.01226539162756</v>
+        <v>16.99503790620443</v>
       </c>
       <c r="N19">
-        <v>11.40923507007505</v>
+        <v>16.91775949901163</v>
       </c>
       <c r="O19">
-        <v>13.86575944473967</v>
+        <v>19.7667999305846</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70339789228477</v>
+        <v>13.31301875671402</v>
       </c>
       <c r="C20">
-        <v>13.79256041341267</v>
+        <v>8.494890158385768</v>
       </c>
       <c r="D20">
-        <v>8.87974403164414</v>
+        <v>11.56096829990562</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.08707550951129</v>
+        <v>28.09153134797947</v>
       </c>
       <c r="G20">
-        <v>23.90254670833753</v>
+        <v>25.52121614165965</v>
       </c>
       <c r="H20">
-        <v>8.15581523323846</v>
+        <v>13.23805703885448</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.697117691663501</v>
+        <v>11.14291967052421</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.33599920237204</v>
+        <v>17.06402793910415</v>
       </c>
       <c r="N20">
-        <v>11.37075865104045</v>
+        <v>16.90358329880521</v>
       </c>
       <c r="O20">
-        <v>13.9591417343506</v>
+        <v>19.75679314319422</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.99778883677893</v>
+        <v>13.9150358814268</v>
       </c>
       <c r="C21">
-        <v>14.51642357802321</v>
+        <v>8.876279554093918</v>
       </c>
       <c r="D21">
-        <v>9.207755213606573</v>
+        <v>11.59971916022961</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.85760075626547</v>
+        <v>28.12402034179946</v>
       </c>
       <c r="G21">
-        <v>25.01615016281504</v>
+        <v>25.63964479362427</v>
       </c>
       <c r="H21">
-        <v>8.212519153343084</v>
+        <v>13.20201091754461</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.738134396349407</v>
+        <v>11.11801832122881</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.38546921996468</v>
+        <v>17.29639243258316</v>
       </c>
       <c r="N21">
-        <v>11.24632293324322</v>
+        <v>16.85797348243006</v>
       </c>
       <c r="O21">
-        <v>14.28842956106231</v>
+        <v>19.72903849504217</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.80783288569783</v>
+        <v>14.2949926599543</v>
       </c>
       <c r="C22">
-        <v>14.971000403203</v>
+        <v>9.115960093638149</v>
       </c>
       <c r="D22">
-        <v>9.420075798382767</v>
+        <v>11.62657707759676</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.36958390412739</v>
+        <v>28.15181473926275</v>
       </c>
       <c r="G22">
-        <v>25.74869488031933</v>
+        <v>25.72512148773701</v>
       </c>
       <c r="H22">
-        <v>8.256524170337556</v>
+        <v>13.18055786283055</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.769187379038113</v>
+        <v>11.10316910900589</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.04312502266727</v>
+        <v>17.44846915993382</v>
       </c>
       <c r="N22">
-        <v>11.16873780629342</v>
+        <v>16.82966776133802</v>
       </c>
       <c r="O22">
-        <v>14.5152731143992</v>
+        <v>19.71528026428442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.37876589235251</v>
+        <v>14.09346178778785</v>
       </c>
       <c r="C23">
-        <v>14.73008157931684</v>
+        <v>8.988924364082322</v>
       </c>
       <c r="D23">
-        <v>9.30696054884155</v>
+        <v>11.61210397484945</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.09559185988689</v>
+        <v>28.13638153939721</v>
       </c>
       <c r="G23">
-        <v>25.35733809618478</v>
+        <v>25.67876816728201</v>
       </c>
       <c r="H23">
-        <v>8.232386086134667</v>
+        <v>13.19181497144702</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.752216233507948</v>
+        <v>11.11096399465607</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.69468787876196</v>
+        <v>17.36729684058247</v>
       </c>
       <c r="N23">
-        <v>11.20979513342194</v>
+        <v>16.84463771660826</v>
       </c>
       <c r="O23">
-        <v>14.393135020041</v>
+        <v>19.72222194724966</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.68163162136803</v>
+        <v>13.30295705753665</v>
       </c>
       <c r="C24">
-        <v>13.78041785248964</v>
+        <v>8.488497173502342</v>
       </c>
       <c r="D24">
-        <v>8.874352051602742</v>
+        <v>11.56036116027624</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.074630865932</v>
+        <v>28.09111139948485</v>
       </c>
       <c r="G24">
-        <v>23.88443749096625</v>
+        <v>25.51941814575692</v>
       </c>
       <c r="H24">
-        <v>8.15500202991657</v>
+        <v>13.23868169516102</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.696516951389624</v>
+        <v>11.14335072934347</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.31836575929255</v>
+        <v>17.06023666395024</v>
       </c>
       <c r="N24">
-        <v>11.37285370754883</v>
+        <v>16.90435418036963</v>
       </c>
       <c r="O24">
-        <v>13.95395535422208</v>
+        <v>19.75732062114713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.69513894388132</v>
+        <v>12.39516867146766</v>
       </c>
       <c r="C25">
-        <v>12.67722151452584</v>
+        <v>7.908738370784415</v>
       </c>
       <c r="D25">
-        <v>8.400756942410558</v>
+        <v>11.511283353835</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.01288806577266</v>
+        <v>28.0705673488296</v>
       </c>
       <c r="G25">
-        <v>22.32190430227458</v>
+        <v>25.38275514437422</v>
       </c>
       <c r="H25">
-        <v>8.099672833750427</v>
+        <v>13.29825533992685</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.653745168791067</v>
+        <v>11.18440296247369</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.71090716821265</v>
+        <v>16.73130081276203</v>
       </c>
       <c r="N25">
-        <v>11.56396572125358</v>
+        <v>16.97523925797426</v>
       </c>
       <c r="O25">
-        <v>13.52974408804922</v>
+        <v>19.81392992510473</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.68314440705249</v>
+        <v>18.09655893777796</v>
       </c>
       <c r="C2">
-        <v>7.44904072262006</v>
+        <v>11.79822091135811</v>
       </c>
       <c r="D2">
-        <v>11.48108678349906</v>
+        <v>8.048393046173802</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.07982124531163</v>
+        <v>20.26903140599402</v>
       </c>
       <c r="G2">
-        <v>25.31283876543285</v>
+        <v>21.20143157698835</v>
       </c>
       <c r="H2">
-        <v>13.34986025467813</v>
+        <v>8.081198247980833</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.21989229887501</v>
+        <v>6.636090050386971</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.49252308586409</v>
+        <v>14.62073201922456</v>
       </c>
       <c r="N2">
-        <v>17.03302699124378</v>
+        <v>11.71699521898255</v>
       </c>
       <c r="O2">
-        <v>19.87165092779136</v>
+        <v>13.259063391483</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.17585858336026</v>
+        <v>16.92759021349844</v>
       </c>
       <c r="C3">
-        <v>7.118073954361782</v>
+        <v>11.16184759846791</v>
       </c>
       <c r="D3">
-        <v>11.46439291866277</v>
+        <v>7.808702466391019</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28.10129476322183</v>
+        <v>19.79058235609578</v>
       </c>
       <c r="G3">
-        <v>25.28473549344122</v>
+        <v>20.46521654862677</v>
       </c>
       <c r="H3">
-        <v>13.38965292054986</v>
+        <v>8.081556418767249</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.24722677181777</v>
+        <v>6.632219583852907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.33357170033008</v>
+        <v>13.85029471728092</v>
       </c>
       <c r="N3">
-        <v>17.07569612195835</v>
+        <v>11.82805270136228</v>
       </c>
       <c r="O3">
-        <v>19.92072144201968</v>
+        <v>13.10089128804629</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.85320893001702</v>
+        <v>16.16741159597116</v>
       </c>
       <c r="C4">
-        <v>6.905726496568719</v>
+        <v>10.75153089459491</v>
       </c>
       <c r="D4">
-        <v>11.45602244036113</v>
+        <v>7.661616915525564</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>28.12196722358647</v>
+        <v>19.51011998303898</v>
       </c>
       <c r="G4">
-        <v>25.2770065025454</v>
+        <v>20.02619093569192</v>
       </c>
       <c r="H4">
-        <v>13.41645970570025</v>
+        <v>8.087785991713661</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.26562955622145</v>
+        <v>6.633655050527317</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.23763683849317</v>
+        <v>13.35902129007642</v>
       </c>
       <c r="N4">
-        <v>17.10362961990512</v>
+        <v>11.89977048986075</v>
       </c>
       <c r="O4">
-        <v>19.95573983319532</v>
+        <v>13.01591165000032</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.71909691433692</v>
+        <v>15.84694291365066</v>
       </c>
       <c r="C5">
-        <v>6.816977033231961</v>
+        <v>10.5794934998557</v>
       </c>
       <c r="D5">
-        <v>11.45308691128494</v>
+        <v>7.601784736198426</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>28.13227203604722</v>
+        <v>19.39926603749608</v>
       </c>
       <c r="G5">
-        <v>25.27625281819564</v>
+        <v>19.85080398003954</v>
       </c>
       <c r="H5">
-        <v>13.42798011169156</v>
+        <v>8.091784443626821</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.27353600884418</v>
+        <v>6.635171638882468</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.19899754528203</v>
+        <v>13.15445450762463</v>
       </c>
       <c r="N5">
-        <v>17.11544963334899</v>
+        <v>11.92987006323508</v>
       </c>
       <c r="O5">
-        <v>19.97123629949267</v>
+        <v>12.98427646887448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69667463693277</v>
+        <v>15.7930832484794</v>
       </c>
       <c r="C6">
-        <v>6.802108994072434</v>
+        <v>10.550638274245</v>
       </c>
       <c r="D6">
-        <v>11.45262826612207</v>
+        <v>7.591858634458641</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>28.13409664270634</v>
+        <v>19.38106880937973</v>
       </c>
       <c r="G6">
-        <v>25.27627233647843</v>
+        <v>19.82190084089947</v>
       </c>
       <c r="H6">
-        <v>13.42992907316408</v>
+        <v>8.092535047705908</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.27487346045108</v>
+        <v>6.635478944796954</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.19261006383365</v>
+        <v>13.12022951491005</v>
       </c>
       <c r="N6">
-        <v>17.11743874635916</v>
+        <v>11.93492050143704</v>
       </c>
       <c r="O6">
-        <v>19.97388343660974</v>
+        <v>12.97920246396212</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.85141063990601</v>
+        <v>16.16313294767846</v>
       </c>
       <c r="C7">
-        <v>6.904538448178071</v>
+        <v>10.74923015478716</v>
       </c>
       <c r="D7">
-        <v>11.45598092191534</v>
+        <v>7.660809451869493</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>28.12209858702236</v>
+        <v>19.508610941574</v>
       </c>
       <c r="G7">
-        <v>25.27698663853675</v>
+        <v>20.02381103066837</v>
       </c>
       <c r="H7">
-        <v>13.41661265974042</v>
+        <v>8.087834073407819</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.26573453683123</v>
+        <v>6.633671767332626</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.23711384510671</v>
+        <v>13.35627980871748</v>
       </c>
       <c r="N7">
-        <v>17.10378725881927</v>
+        <v>11.9001729008879</v>
       </c>
       <c r="O7">
-        <v>19.95594386357515</v>
+        <v>13.01547296490299</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.51065213777613</v>
+        <v>17.70228901349544</v>
       </c>
       <c r="C8">
-        <v>7.336863276778803</v>
+        <v>11.58291315717103</v>
       </c>
       <c r="D8">
-        <v>11.47494242881909</v>
+        <v>7.965779549974935</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.08567022245957</v>
+        <v>20.10135777937946</v>
       </c>
       <c r="G8">
-        <v>25.30117261203446</v>
+        <v>20.94503211977781</v>
       </c>
       <c r="H8">
-        <v>13.36308775252538</v>
+        <v>8.080043692431012</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.22898113024684</v>
+        <v>6.633948198972512</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.4373941628355</v>
+        <v>14.3589828121723</v>
       </c>
       <c r="N8">
-        <v>17.04737975731909</v>
+        <v>11.75454727274249</v>
       </c>
       <c r="O8">
-        <v>19.88755392957974</v>
+        <v>13.20197466939188</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.70801949261509</v>
+        <v>20.3852902845894</v>
       </c>
       <c r="C9">
-        <v>8.109248572027946</v>
+        <v>13.05929395344373</v>
       </c>
       <c r="D9">
-        <v>11.52690207487337</v>
+        <v>8.561026153095341</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.0737019701161</v>
+        <v>21.36492115423894</v>
       </c>
       <c r="G9">
-        <v>25.42404301081082</v>
+        <v>22.84413027085781</v>
       </c>
       <c r="H9">
-        <v>13.27698417647919</v>
+        <v>8.114720018270894</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.16975697901931</v>
+        <v>6.665932619977405</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.84167106628555</v>
+        <v>16.26897060853819</v>
       </c>
       <c r="N9">
-        <v>16.9504943352803</v>
+        <v>11.49762791978536</v>
       </c>
       <c r="O9">
-        <v>19.79236301856312</v>
+        <v>13.66609289122838</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.52200370067978</v>
+        <v>22.15444464512441</v>
       </c>
       <c r="C10">
-        <v>8.627530136155249</v>
+        <v>14.0444142749546</v>
       </c>
       <c r="D10">
-        <v>11.57388274243842</v>
+        <v>8.992416166525359</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.10117716345722</v>
+        <v>22.34880697245081</v>
       </c>
       <c r="G10">
-        <v>25.55992216640944</v>
+        <v>24.28245916713317</v>
       </c>
       <c r="H10">
-        <v>13.22525035311167</v>
+        <v>8.173702618311593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.13407881746466</v>
+        <v>6.710224363867244</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.14346866248732</v>
+        <v>17.70150880239435</v>
       </c>
       <c r="N10">
-        <v>16.88763780066706</v>
+        <v>11.32735691740304</v>
       </c>
       <c r="O10">
-        <v>19.74631508508885</v>
+        <v>14.06923198633948</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.87680463132691</v>
+        <v>22.91601302499373</v>
       </c>
       <c r="C11">
-        <v>8.852121168660352</v>
+        <v>14.47059576973996</v>
       </c>
       <c r="D11">
-        <v>11.59711833691075</v>
+        <v>9.186614879940345</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.12153221935067</v>
+        <v>22.80717182617046</v>
       </c>
       <c r="G11">
-        <v>25.6314980544671</v>
+        <v>24.94369743653372</v>
       </c>
       <c r="H11">
-        <v>13.20422401161514</v>
+        <v>8.20844525617281</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.11954882586654</v>
+        <v>6.735232013490588</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.28131878176043</v>
+        <v>18.31911614055775</v>
       </c>
       <c r="N11">
-        <v>16.86084127972057</v>
+        <v>11.25417104898258</v>
       </c>
       <c r="O11">
-        <v>19.73058177003163</v>
+        <v>14.26641499230306</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.00884971397662</v>
+        <v>23.19823629162681</v>
       </c>
       <c r="C12">
-        <v>8.935527456334986</v>
+        <v>14.62880630742674</v>
       </c>
       <c r="D12">
-        <v>11.60618039912634</v>
+        <v>9.25980488993444</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>28.13036629009335</v>
+        <v>22.98219283685212</v>
       </c>
       <c r="G12">
-        <v>25.65998961389563</v>
+        <v>25.19491757802258</v>
       </c>
       <c r="H12">
-        <v>13.19662292338122</v>
+        <v>8.222789331870299</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.11429115446033</v>
+        <v>6.745428187497804</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.33355938552639</v>
+        <v>18.54814248353244</v>
       </c>
       <c r="N12">
-        <v>16.85095190766522</v>
+        <v>11.22709659561589</v>
       </c>
       <c r="O12">
-        <v>19.72537543571053</v>
+        <v>14.34307961506889</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.98051538794408</v>
+        <v>23.13772786608256</v>
       </c>
       <c r="C13">
-        <v>8.917637904341069</v>
+        <v>14.59487424761063</v>
       </c>
       <c r="D13">
-        <v>11.60421709296081</v>
+        <v>9.244058426205653</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>28.12841370462098</v>
+        <v>22.94443606864224</v>
       </c>
       <c r="G13">
-        <v>25.65379204021142</v>
+        <v>25.14077865728822</v>
       </c>
       <c r="H13">
-        <v>13.19824388420064</v>
+        <v>8.219646465827426</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.11541261255214</v>
+        <v>6.74319951889686</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.3223073151863</v>
+        <v>18.49903236032902</v>
       </c>
       <c r="N13">
-        <v>16.8530702997885</v>
+        <v>11.23289869405973</v>
       </c>
       <c r="O13">
-        <v>19.72646326465641</v>
+        <v>14.32647961541606</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.88771479455292</v>
+        <v>22.93935498191119</v>
       </c>
       <c r="C14">
-        <v>8.859016125641487</v>
+        <v>14.48367555285298</v>
       </c>
       <c r="D14">
-        <v>11.59785863072222</v>
+        <v>9.192643546986442</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>28.12223646119593</v>
+        <v>22.82154244549889</v>
       </c>
       <c r="G14">
-        <v>25.63381437356434</v>
+        <v>24.96434985636613</v>
       </c>
       <c r="H14">
-        <v>13.2035914249724</v>
+        <v>8.209601263924917</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.11911137336765</v>
+        <v>6.736056145136319</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.2856160836324</v>
+        <v>18.33805514380843</v>
       </c>
       <c r="N14">
-        <v>16.86002250974554</v>
+        <v>11.25193064803572</v>
       </c>
       <c r="O14">
-        <v>19.73013837132293</v>
+        <v>14.27268218789755</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.83056862154302</v>
+        <v>22.8170443968676</v>
       </c>
       <c r="C15">
-        <v>8.822893916876943</v>
+        <v>14.41514925809598</v>
       </c>
       <c r="D15">
-        <v>11.5939980249571</v>
+        <v>9.161103509587573</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28.11859923700891</v>
+        <v>22.74645223713389</v>
       </c>
       <c r="G15">
-        <v>25.62175760397047</v>
+        <v>24.85638470611225</v>
       </c>
       <c r="H15">
-        <v>13.20691399328343</v>
+        <v>8.203604440782906</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.12140881578808</v>
+        <v>6.73177602550685</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.26314561565979</v>
+        <v>18.23882210778709</v>
       </c>
       <c r="N15">
-        <v>16.86431450777958</v>
+        <v>11.2636723379864</v>
       </c>
       <c r="O15">
-        <v>19.73248739712299</v>
+        <v>14.23998988565554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.49849757666911</v>
+        <v>22.10380868469399</v>
       </c>
       <c r="C16">
-        <v>8.61262460286</v>
+        <v>14.01611877560814</v>
       </c>
       <c r="D16">
-        <v>11.57240134578589</v>
+        <v>8.979678845247738</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.10000471527812</v>
+        <v>22.31905983515701</v>
       </c>
       <c r="G16">
-        <v>25.55543962196627</v>
+        <v>24.23936974950483</v>
       </c>
       <c r="H16">
-        <v>13.22667498067972</v>
+        <v>8.171595616311834</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.1350626022063</v>
+        <v>6.708690196365656</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.13446761408521</v>
+        <v>17.66046549982612</v>
       </c>
       <c r="N16">
-        <v>16.88942513373525</v>
+        <v>11.33222783398862</v>
       </c>
       <c r="O16">
-        <v>19.74744837355448</v>
+        <v>14.05662433579749</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.29075291267364</v>
+        <v>21.65522420928693</v>
       </c>
       <c r="C17">
-        <v>8.480742046869644</v>
+        <v>13.76568760288672</v>
       </c>
       <c r="D17">
-        <v>11.55962655643611</v>
+        <v>8.867816014614368</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.09060754466768</v>
+        <v>22.05955579131398</v>
       </c>
       <c r="G17">
-        <v>25.51724542876117</v>
+        <v>23.86249484152076</v>
       </c>
       <c r="H17">
-        <v>13.23944036499572</v>
+        <v>8.154021578928527</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.1438742479061</v>
+        <v>6.695792026270232</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.05564226356156</v>
+        <v>17.29697301925921</v>
       </c>
       <c r="N17">
-        <v>16.90528960605124</v>
+        <v>11.37539553819305</v>
       </c>
       <c r="O17">
-        <v>19.75796327112033</v>
+        <v>13.94767872473544</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.16981027655523</v>
+        <v>21.39313814229063</v>
       </c>
       <c r="C18">
-        <v>8.403836195527914</v>
+        <v>13.61958019517124</v>
       </c>
       <c r="D18">
-        <v>11.55245457446394</v>
+        <v>8.803286037679142</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.08594232212366</v>
+        <v>21.9113173007891</v>
       </c>
       <c r="G18">
-        <v>25.49619733009175</v>
+        <v>23.64638782969283</v>
       </c>
       <c r="H18">
-        <v>13.24701867703818</v>
+        <v>8.144655170200622</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.14910250172335</v>
+        <v>6.688829069514894</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.0103592274399</v>
+        <v>17.08469256049529</v>
       </c>
       <c r="N18">
-        <v>16.91458362669532</v>
+        <v>11.4006248292027</v>
       </c>
       <c r="O18">
-        <v>19.76450185883912</v>
+        <v>13.88631402162804</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.12861432669071</v>
+        <v>21.30369944328565</v>
       </c>
       <c r="C19">
-        <v>8.377617912081194</v>
+        <v>13.56975659622578</v>
       </c>
       <c r="D19">
-        <v>11.55005658861673</v>
+        <v>8.78140655680672</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.08448990965971</v>
+        <v>21.86130501010128</v>
       </c>
       <c r="G19">
-        <v>25.48922931255602</v>
+        <v>23.57333707121332</v>
       </c>
       <c r="H19">
-        <v>13.24962507967862</v>
+        <v>8.141609705314176</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.15090018220668</v>
+        <v>6.686548959545472</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.99503790620443</v>
+        <v>17.0122653916276</v>
       </c>
       <c r="N19">
-        <v>16.91775949901163</v>
+        <v>11.40923507007507</v>
       </c>
       <c r="O19">
-        <v>19.7667999305846</v>
+        <v>13.86575944473969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.31301875671402</v>
+        <v>21.70339789228479</v>
       </c>
       <c r="C20">
-        <v>8.494890158385768</v>
+        <v>13.79256041341269</v>
       </c>
       <c r="D20">
-        <v>11.56096829990562</v>
+        <v>8.879744031644011</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.09153134797947</v>
+        <v>22.08707550951128</v>
       </c>
       <c r="G20">
-        <v>25.52121614165965</v>
+        <v>23.90254670833753</v>
       </c>
       <c r="H20">
-        <v>13.23805703885448</v>
+        <v>8.155815233238476</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.14291967052421</v>
+        <v>6.697117691663544</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.06402793910415</v>
+        <v>17.33599920237207</v>
       </c>
       <c r="N20">
-        <v>16.90358329880521</v>
+        <v>11.37075865104045</v>
       </c>
       <c r="O20">
-        <v>19.75679314319422</v>
+        <v>13.95914173435063</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.9150358814268</v>
+        <v>22.99778883677891</v>
       </c>
       <c r="C21">
-        <v>8.876279554093918</v>
+        <v>14.51642357802299</v>
       </c>
       <c r="D21">
-        <v>11.59971916022961</v>
+        <v>9.207755213606575</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.12402034179946</v>
+        <v>22.85760075626549</v>
       </c>
       <c r="G21">
-        <v>25.63964479362427</v>
+        <v>25.01615016281504</v>
       </c>
       <c r="H21">
-        <v>13.20201091754461</v>
+        <v>8.212519153343042</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.11801832122881</v>
+        <v>6.738134396349442</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.29639243258316</v>
+        <v>18.38546921996463</v>
       </c>
       <c r="N21">
-        <v>16.85797348243006</v>
+        <v>11.24632293324322</v>
       </c>
       <c r="O21">
-        <v>19.72903849504217</v>
+        <v>14.28842956106236</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.2949926599543</v>
+        <v>23.80783288569788</v>
       </c>
       <c r="C22">
-        <v>9.115960093638149</v>
+        <v>14.97100040320294</v>
       </c>
       <c r="D22">
-        <v>11.62657707759676</v>
+        <v>9.420075798382733</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.15181473926275</v>
+        <v>23.36958390412734</v>
       </c>
       <c r="G22">
-        <v>25.72512148773701</v>
+        <v>25.7486948803193</v>
       </c>
       <c r="H22">
-        <v>13.18055786283055</v>
+        <v>8.256524170337562</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.10316910900589</v>
+        <v>6.769187379038153</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.44846915993382</v>
+        <v>19.04312502266727</v>
       </c>
       <c r="N22">
-        <v>16.82966776133802</v>
+        <v>11.16873780629338</v>
       </c>
       <c r="O22">
-        <v>19.71528026428442</v>
+        <v>14.51527311439917</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.09346178778785</v>
+        <v>23.37876589235255</v>
       </c>
       <c r="C23">
-        <v>8.988924364082322</v>
+        <v>14.73008157931677</v>
       </c>
       <c r="D23">
-        <v>11.61210397484945</v>
+        <v>9.306960548841586</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.13638153939721</v>
+        <v>23.09559185988689</v>
       </c>
       <c r="G23">
-        <v>25.67876816728201</v>
+        <v>25.3573380961848</v>
       </c>
       <c r="H23">
-        <v>13.19181497144702</v>
+        <v>8.232386086134595</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.11096399465607</v>
+        <v>6.752216233507884</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.36729684058247</v>
+        <v>18.69468787876201</v>
       </c>
       <c r="N23">
-        <v>16.84463771660826</v>
+        <v>11.20979513342193</v>
       </c>
       <c r="O23">
-        <v>19.72222194724966</v>
+        <v>14.39313502004097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.30295705753665</v>
+        <v>21.68163162136808</v>
       </c>
       <c r="C24">
-        <v>8.488497173502342</v>
+        <v>13.78041785248953</v>
       </c>
       <c r="D24">
-        <v>11.56036116027624</v>
+        <v>8.874352051602775</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.09111139948485</v>
+        <v>22.07463086593196</v>
       </c>
       <c r="G24">
-        <v>25.51941814575692</v>
+        <v>23.8844374909662</v>
       </c>
       <c r="H24">
-        <v>13.23868169516102</v>
+        <v>8.155002029916522</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.14335072934347</v>
+        <v>6.696516951389575</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.06023666395024</v>
+        <v>17.31836575929254</v>
       </c>
       <c r="N24">
-        <v>16.90435418036963</v>
+        <v>11.37285370754877</v>
       </c>
       <c r="O24">
-        <v>19.75732062114713</v>
+        <v>13.953955354222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.39516867146766</v>
+        <v>19.6951389438814</v>
       </c>
       <c r="C25">
-        <v>7.908738370784415</v>
+        <v>12.67722151452572</v>
       </c>
       <c r="D25">
-        <v>11.511283353835</v>
+        <v>8.400756942410496</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.0705673488296</v>
+        <v>21.01288806577261</v>
       </c>
       <c r="G25">
-        <v>25.38275514437422</v>
+        <v>22.32190430227453</v>
       </c>
       <c r="H25">
-        <v>13.29825533992685</v>
+        <v>8.099672833750427</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.18440296247369</v>
+        <v>6.653745168791042</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.73130081276203</v>
+        <v>15.71090716821267</v>
       </c>
       <c r="N25">
-        <v>16.97523925797426</v>
+        <v>11.56396572125359</v>
       </c>
       <c r="O25">
-        <v>19.81392992510473</v>
+        <v>13.52974408804918</v>
       </c>
     </row>
   </sheetData>
